--- a/mes-plugins/mes-plugins-basic/src/main/resources/basic/public/resources/modelImportSchema_pl.xlsx
+++ b/mes-plugins/mes-plugins-basic/src/main/resources/basic/public/resources/modelImportSchema_pl.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Łukasz Poniewierski</author>
+    <author>qcadoo MES</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -24,8 +24,7 @@
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
           </rPr>
-          <t>Łukasz Poniewierski:
-qcadoo MES:
+          <t>qcadoo MES:
 Dana wymagana. Podana nazwa modelu musi być unikalna.</t>
         </r>
       </text>
@@ -87,12 +86,18 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -105,13 +110,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -120,31 +125,31 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -161,13 +166,13 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -187,6 +192,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -390,17 +396,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -428,10 +434,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -679,12 +685,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -971,7 +977,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -999,10 +1005,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">

--- a/mes-plugins/mes-plugins-basic/src/main/resources/basic/public/resources/modelImportSchema_pl.xlsx
+++ b/mes-plugins/mes-plugins-basic/src/main/resources/basic/public/resources/modelImportSchema_pl.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akazmierczak\Documents\Quantum Qguar\Qcadoo\Szablony\Import do Qcadoo\propozycje\PL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId4"/>
+    <sheet name="Modele - import" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -16,7 +24,7 @@
     <author>qcadoo MES</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -34,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Nazwa</t>
   </si>
@@ -54,36 +62,32 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="3">
@@ -100,7 +104,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -108,103 +112,315 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1">
+    <tableStyle name="Styl tabeli 1" pivot="0" count="1">
+      <tableStyleElement type="wholeTable" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="modelImportSchema_pl" displayName="modelImportSchema_pl" ref="A1:E2" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E2"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Nazwa" dataDxfId="4"/>
+    <tableColumn id="2" name="Asortyment" dataDxfId="3"/>
+    <tableColumn id="3" name="Forma" dataDxfId="2"/>
+    <tableColumn id="4" name="Rodzaj wyrobu" dataDxfId="1"/>
+    <tableColumn id="5" name="Etykieta" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="Styl tabeli 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
     <a:clrScheme name="Motyw pakietu Office">
       <a:dk1>
@@ -406,7 +622,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -425,7 +641,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -455,7 +671,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -481,7 +697,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -507,7 +723,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -533,7 +749,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -559,7 +775,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -585,7 +801,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -611,7 +827,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -637,7 +853,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -663,7 +879,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -676,9 +892,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -695,7 +917,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -714,7 +936,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -740,7 +962,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -766,7 +988,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -792,7 +1014,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -818,7 +1040,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -844,7 +1066,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -870,7 +1092,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -896,7 +1118,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -922,7 +1144,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -948,7 +1170,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -961,9 +1183,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -977,7 +1205,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -996,7 +1224,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1026,7 +1254,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1052,7 +1280,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1078,7 +1306,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1104,7 +1332,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1130,7 +1358,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1156,7 +1384,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1182,7 +1410,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1208,7 +1436,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1234,7 +1462,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1247,486 +1475,494 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.95" customHeight="1"/>
   <cols>
-    <col min="1" max="5" width="16.8516" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="5" width="16.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" ht="16" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" ht="16" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" ht="16" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" ht="16" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" ht="16" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" ht="16" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" ht="16" customHeight="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" ht="16" customHeight="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" ht="16" customHeight="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" ht="16" customHeight="1">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" ht="16" customHeight="1">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" ht="16" customHeight="1">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" ht="16" customHeight="1">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" ht="16" customHeight="1">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" ht="16" customHeight="1">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" ht="16" customHeight="1">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" ht="16" customHeight="1">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" ht="16" customHeight="1">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" ht="16" customHeight="1">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" ht="16" customHeight="1">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" ht="16" customHeight="1">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" ht="16" customHeight="1">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" ht="16" customHeight="1">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" ht="16" customHeight="1">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" ht="16" customHeight="1">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" ht="16" customHeight="1">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" ht="16" customHeight="1">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" ht="16" customHeight="1">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" ht="16" customHeight="1">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" ht="16" customHeight="1">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" ht="16" customHeight="1">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-    </row>
-    <row r="45" ht="16" customHeight="1">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-    </row>
-    <row r="46" ht="16" customHeight="1">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" ht="16" customHeight="1">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-    </row>
-    <row r="48" ht="16" customHeight="1">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" ht="16" customHeight="1">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" ht="16" customHeight="1">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" ht="16" customHeight="1">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" ht="16" customHeight="1">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" ht="16" customHeight="1">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" ht="16" customHeight="1">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55" ht="16" customHeight="1">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" ht="16" customHeight="1">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" ht="16" customHeight="1">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-    </row>
-    <row r="58" ht="16" customHeight="1">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-    </row>
-    <row r="59" ht="16" customHeight="1">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-    </row>
-    <row r="60" ht="16" customHeight="1">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-    </row>
-    <row r="61" ht="16" customHeight="1">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-    </row>
-    <row r="62" ht="16" customHeight="1">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-    </row>
-    <row r="63" ht="16" customHeight="1">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
+    <row r="2" spans="1:5" ht="15.75">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/mes-plugins/mes-plugins-basic/src/main/resources/basic/public/resources/modelImportSchema_pl.xlsx
+++ b/mes-plugins/mes-plugins-basic/src/main/resources/basic/public/resources/modelImportSchema_pl.xlsx
@@ -1,39 +1,161 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akazmierczak\Documents\Quantum Qguar\Qcadoo\Szablony\Import do Qcadoo\propozycje\PL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BFA086-CC27-43BB-B515-A86C6E8DAE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modele - import" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>qcadoo MES</author>
+    <author>Anna Kaźmierczak</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <charset val="238"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
           </rPr>
-          <t>qcadoo MES:
+          <t xml:space="preserve">
 Dana wymagana. Podana nazwa modelu musi być unikalna.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{781E3DE3-22E1-4890-8D95-EBB4CFEB60C2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <charset val="238"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+Dana opcjonalna. Numer asortymentu zdefiniowanego 
+w qcadoo.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{5C01FA85-15A4-48FF-9A34-E2C28F892275}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <charset val="238"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+Dana opcjonalna. Numer formy zdefiniowanej 
+w qcadoo.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{905D5ADE-003E-4581-8F61-633FA87CCD75}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <charset val="238"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+Dana opcjonalna. Rodzaj wyrobu, zdefiniowany 
+w słownikach qcadoo.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{127A2CA3-C817-479B-A2E0-A1ED9A8383EB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">qcadoo MES:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Dana opcjonalna. Numer etykiety zdefiniowanej 
+w qcadoo.</t>
         </r>
       </text>
     </comment>
@@ -62,8 +184,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -87,6 +209,19 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
       <charset val="238"/>
     </font>
   </fonts>
@@ -117,13 +252,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -322,7 +457,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="Styl tabeli 1" pivot="0" count="1">
+    <tableStyle name="Styl tabeli 1" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
     </tableStyle>
   </tableStyles>
@@ -406,14 +541,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="modelImportSchema_pl" displayName="modelImportSchema_pl" ref="A1:E2" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="modelImportSchema_pl" displayName="modelImportSchema_pl" ref="A1:E2" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Nazwa" dataDxfId="4"/>
-    <tableColumn id="2" name="Asortyment" dataDxfId="3"/>
-    <tableColumn id="3" name="Forma" dataDxfId="2"/>
-    <tableColumn id="4" name="Rodzaj wyrobu" dataDxfId="1"/>
-    <tableColumn id="5" name="Etykieta" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nazwa" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Asortyment" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Forma" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Rodzaj wyrobu" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Etykieta" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Styl tabeli 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1493,7 +1628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
